--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F13a1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F13a1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H2">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I2">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J2">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>12.22290565695867</v>
+        <v>39.96037190142889</v>
       </c>
       <c r="R2">
-        <v>110.006150912628</v>
+        <v>359.6433471128601</v>
       </c>
       <c r="S2">
-        <v>0.0005081202071082055</v>
+        <v>0.00168266128819502</v>
       </c>
       <c r="T2">
-        <v>0.0005081202071082055</v>
+        <v>0.00168266128819502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H3">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I3">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J3">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>13.43865072840134</v>
+        <v>46.29556911903557</v>
       </c>
       <c r="R3">
-        <v>120.947856555612</v>
+        <v>416.6601220713201</v>
       </c>
       <c r="S3">
-        <v>0.0005586601241156266</v>
+        <v>0.001949425349786908</v>
       </c>
       <c r="T3">
-        <v>0.0005586601241156266</v>
+        <v>0.001949425349786908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H4">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I4">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J4">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>7.448805085549001</v>
+        <v>35.14030626606223</v>
       </c>
       <c r="R4">
-        <v>67.039245769941</v>
+        <v>316.26275639456</v>
       </c>
       <c r="S4">
-        <v>0.0003096553707442734</v>
+        <v>0.00147969676446143</v>
       </c>
       <c r="T4">
-        <v>0.0003096553707442734</v>
+        <v>0.00147969676446143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.079613</v>
+        <v>0.2742633333333334</v>
       </c>
       <c r="H5">
-        <v>0.238839</v>
+        <v>0.82279</v>
       </c>
       <c r="I5">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="J5">
-        <v>0.001601787689462956</v>
+        <v>0.005871241579245317</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>5.420874911536668</v>
+        <v>18.03585273013667</v>
       </c>
       <c r="R5">
-        <v>48.78787420383001</v>
+        <v>162.32267457123</v>
       </c>
       <c r="S5">
-        <v>0.0002253519874948505</v>
+        <v>0.0007594581768019591</v>
       </c>
       <c r="T5">
-        <v>0.0002253519874948505</v>
+        <v>0.0007594581768019591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H6">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I6">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J6">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>42.10738005723111</v>
+        <v>12.38383479294333</v>
       </c>
       <c r="R6">
-        <v>378.96642051508</v>
+        <v>111.45451313649</v>
       </c>
       <c r="S6">
-        <v>0.001750452083648652</v>
+        <v>0.000521461598427797</v>
       </c>
       <c r="T6">
-        <v>0.001750452083648652</v>
+        <v>0.000521461598427797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H7">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I7">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J7">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>46.29556911903557</v>
+        <v>14.34713072815333</v>
       </c>
       <c r="R7">
-        <v>416.6601220713201</v>
+        <v>129.12417655338</v>
       </c>
       <c r="S7">
-        <v>0.001924559906552516</v>
+        <v>0.0006041325524318656</v>
       </c>
       <c r="T7">
-        <v>0.001924559906552516</v>
+        <v>0.0006041325524318657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H8">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I8">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J8">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>25.66081057255667</v>
+        <v>10.89008251589333</v>
       </c>
       <c r="R8">
-        <v>230.94729515301</v>
+        <v>98.01074264304</v>
       </c>
       <c r="S8">
-        <v>0.001066749326930195</v>
+        <v>0.0004585623056748354</v>
       </c>
       <c r="T8">
-        <v>0.001066749326930194</v>
+        <v>0.0004585623056748354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2742633333333334</v>
+        <v>0.084995</v>
       </c>
       <c r="H9">
-        <v>0.82279</v>
+        <v>0.254985</v>
       </c>
       <c r="I9">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408946</v>
       </c>
       <c r="J9">
-        <v>0.005518089143788182</v>
+        <v>0.001819514741408947</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>18.67467904514445</v>
+        <v>5.589362909605</v>
       </c>
       <c r="R9">
-        <v>168.0721114063</v>
+        <v>50.304266186445</v>
       </c>
       <c r="S9">
-        <v>0.0007763278266568192</v>
+        <v>0.0002353582848744486</v>
       </c>
       <c r="T9">
-        <v>0.0007763278266568192</v>
+        <v>0.0002353582848744486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H10">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I10">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J10">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>294.6269948385431</v>
+        <v>6753.775310289522</v>
       </c>
       <c r="R10">
-        <v>2651.642953546888</v>
+        <v>60783.9777926057</v>
       </c>
       <c r="S10">
-        <v>0.01224798209514111</v>
+        <v>0.2843896521239614</v>
       </c>
       <c r="T10">
-        <v>0.01224798209514111</v>
+        <v>0.2843896521239614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H11">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I11">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J11">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>323.9319184746836</v>
+        <v>7824.498542286191</v>
       </c>
       <c r="R11">
-        <v>2915.387266272152</v>
+        <v>70420.48688057571</v>
       </c>
       <c r="S11">
-        <v>0.01346622138170621</v>
+        <v>0.3294759325343654</v>
       </c>
       <c r="T11">
-        <v>0.01346622138170621</v>
+        <v>0.3294759325343654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H12">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I12">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J12">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>179.5497011174207</v>
+        <v>5939.127229375382</v>
       </c>
       <c r="R12">
-        <v>1615.947310056786</v>
+        <v>53452.14506437843</v>
       </c>
       <c r="S12">
-        <v>0.007464087008317872</v>
+        <v>0.2500862479254742</v>
       </c>
       <c r="T12">
-        <v>0.007464087008317871</v>
+        <v>0.2500862479254742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.919031333333334</v>
+        <v>46.353746</v>
       </c>
       <c r="H13">
-        <v>5.757094</v>
+        <v>139.061238</v>
       </c>
       <c r="I13">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="J13">
-        <v>0.03861028683037966</v>
+        <v>0.9923092436793457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>130.6674639734645</v>
+        <v>3048.272352651934</v>
       </c>
       <c r="R13">
-        <v>1176.00717576118</v>
+        <v>27434.4511738674</v>
       </c>
       <c r="S13">
-        <v>0.00543199634521447</v>
+        <v>0.1283574110955448</v>
       </c>
       <c r="T13">
-        <v>0.00543199634521447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H14">
-        <v>142.289053</v>
-      </c>
-      <c r="I14">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J14">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>153.5290173333333</v>
-      </c>
-      <c r="N14">
-        <v>460.587052</v>
-      </c>
-      <c r="O14">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="P14">
-        <v>0.3172206968818489</v>
-      </c>
-      <c r="Q14">
-        <v>7281.832828126861</v>
-      </c>
-      <c r="R14">
-        <v>65536.49545314175</v>
-      </c>
-      <c r="S14">
-        <v>0.3027141424959509</v>
-      </c>
-      <c r="T14">
-        <v>0.3027141424959509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H15">
-        <v>142.289053</v>
-      </c>
-      <c r="I15">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J15">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>168.7997026666667</v>
-      </c>
-      <c r="N15">
-        <v>506.3991080000001</v>
-      </c>
-      <c r="O15">
-        <v>0.3487728915577651</v>
-      </c>
-      <c r="P15">
-        <v>0.348772891557765</v>
-      </c>
-      <c r="Q15">
-        <v>8006.116613040526</v>
-      </c>
-      <c r="R15">
-        <v>72055.04951736474</v>
-      </c>
-      <c r="S15">
-        <v>0.3328234501453907</v>
-      </c>
-      <c r="T15">
-        <v>0.3328234501453907</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H16">
-        <v>142.289053</v>
-      </c>
-      <c r="I16">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J16">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>93.562673</v>
-      </c>
-      <c r="N16">
-        <v>280.688019</v>
-      </c>
-      <c r="O16">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="P16">
-        <v>0.1933186106880956</v>
-      </c>
-      <c r="Q16">
-        <v>4437.64804577289</v>
-      </c>
-      <c r="R16">
-        <v>39938.83241195601</v>
-      </c>
-      <c r="S16">
-        <v>0.1844781189821033</v>
-      </c>
-      <c r="T16">
-        <v>0.1844781189821033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>47.42968433333333</v>
-      </c>
-      <c r="H17">
-        <v>142.289053</v>
-      </c>
-      <c r="I17">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="J17">
-        <v>0.9542698363363692</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N17">
-        <v>204.27097</v>
-      </c>
-      <c r="O17">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P17">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q17">
-        <v>3229.502541854602</v>
-      </c>
-      <c r="R17">
-        <v>29065.52287669142</v>
-      </c>
-      <c r="S17">
-        <v>0.1342541247129243</v>
-      </c>
-      <c r="T17">
-        <v>0.1342541247129243</v>
+        <v>0.1283574110955448</v>
       </c>
     </row>
   </sheetData>
